--- a/162_DB/Hotel_Nenuphars.xlsx
+++ b/162_DB/Hotel_Nenuphars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Documents\EPSIC\162_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA27D63-4EAA-49D8-8538-EE318BBCB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC758B45-CFF3-439A-B103-D263F5931863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9CDEB04-9F84-4CDA-82EE-90424E81F9AD}"/>
   </bookViews>
@@ -128,10 +128,10 @@
     <t>Quantité * Prix</t>
   </si>
   <si>
-    <t>Total à payer</t>
-  </si>
-  <si>
-    <t>Tous Totaux additionnés</t>
+    <t>Somme de Total</t>
+  </si>
+  <si>
+    <t>Total dû</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +935,7 @@
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
@@ -948,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>27</v>

--- a/162_DB/Hotel_Nenuphars.xlsx
+++ b/162_DB/Hotel_Nenuphars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Documents\EPSIC\162_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC758B45-CFF3-439A-B103-D263F5931863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F89025E-5413-439E-8767-096653C71B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9CDEB04-9F84-4CDA-82EE-90424E81F9AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
   <si>
     <t>Nom de la Donné</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Règle de gestion</t>
   </si>
   <si>
-    <t>Nom de famille</t>
-  </si>
-  <si>
     <t>alphanumérique</t>
   </si>
   <si>
@@ -77,27 +74,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>Prénom</t>
-  </si>
-  <si>
-    <t>Adresse</t>
-  </si>
-  <si>
-    <t>Numéro d'adresse</t>
-  </si>
-  <si>
     <t>numérique</t>
   </si>
   <si>
-    <t>Code postal</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>Téléphone</t>
-  </si>
-  <si>
     <t>Exemple: 00412223344</t>
   </si>
   <si>
@@ -110,15 +89,6 @@
     <t>Exemple: YYYY/MM/DD</t>
   </si>
   <si>
-    <t>Désignation</t>
-  </si>
-  <si>
-    <t>Quantité</t>
-  </si>
-  <si>
-    <t>Prix</t>
-  </si>
-  <si>
     <t>2 décimals Exemple: 10,00</t>
   </si>
   <si>
@@ -131,14 +101,68 @@
     <t>Somme de Total</t>
   </si>
   <si>
-    <t>Total dû</t>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>ID_Client</t>
+  </si>
+  <si>
+    <t>ID_Address</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>ID_Client -&gt;(Last_Name, First_Name, Phone)</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Address_Number</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ZIP_Code</t>
+  </si>
+  <si>
+    <t>ID_Address-&gt;(Adrdess, Address_Nbr, ZIP_Code, City)</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total_Final</t>
+  </si>
+  <si>
+    <t>ID_Service</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>ID_Service-&gt;(Date, Article, Quantity, Price, Total, Total_Final)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -154,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +200,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -217,16 +268,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,17 +319,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,506 +684,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7F3320-BC88-45CB-A718-D76C91A7E9E2}">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>100</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
         <v>100</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>100</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="B24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="B25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="B26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="B27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="E2:F2"/>

--- a/162_DB/Hotel_Nenuphars.xlsx
+++ b/162_DB/Hotel_Nenuphars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Documents\EPSIC\162_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F89025E-5413-439E-8767-096653C71B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088141E5-C68E-4B76-B77D-7976E69CA288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9CDEB04-9F84-4CDA-82EE-90424E81F9AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="41">
   <si>
     <t>Nom de la Donné</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>ID_Service-&gt;(Date, Article, Quantity, Price, Total, Total_Final)</t>
+  </si>
+  <si>
+    <t>MCD</t>
   </si>
 </sst>
 </file>
@@ -324,6 +327,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,10 +339,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -345,11 +353,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7F3320-BC88-45CB-A718-D76C91A7E9E2}">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,42 +706,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -1145,55 +1148,68 @@
       <c r="I21" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B30:I30"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B25:F25"/>
